--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC96F489-128C-44ED-A460-2BE8FEA473A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B530D-FF25-4FE0-A5D2-AE6DCBFCD3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
   <si>
     <t>Source Name</t>
   </si>
@@ -520,12 +520,15 @@
   <si>
     <t>Authors Role Term Source REF</t>
   </si>
+  <si>
+    <t>Derived Data File</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,12 +550,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -685,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -723,6 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +775,7 @@
     <tableColumn id="24" xr3:uid="{D9EF39FD-6C34-45E7-BB66-0E47D62F2287}" name="Parameter [Processed data file format]"/>
     <tableColumn id="25" xr3:uid="{4F08F69F-150F-4C24-8CF1-DB5CA334C705}" name="Term Source REF (NFDI4PSO:0000027)"/>
     <tableColumn id="26" xr3:uid="{937F41BB-46A8-40D7-BA19-6EAA289C307B}" name="Term Accession Number (NFDI4PSO:0000027)"/>
-    <tableColumn id="27" xr3:uid="{47E29D49-E345-471B-B28D-74992C57C833}" name="Data File Name"/>
+    <tableColumn id="2" xr3:uid="{010FC165-1DFE-496A-A994-5082DE452C3C}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1081,7 +1079,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="617" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="709" row="2">
@@ -1114,36 +1112,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1272,6 +1272,7 @@
       <c r="Y2" t="s">
         <v>118</v>
       </c>
+      <c r="Z2" s="13"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
@@ -1292,6 +1293,7 @@
       <c r="Y3" t="s">
         <v>118</v>
       </c>
+      <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
@@ -1312,6 +1314,7 @@
       <c r="Y4" t="s">
         <v>118</v>
       </c>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
@@ -1323,6 +1326,7 @@
       <c r="M5" t="s">
         <v>118</v>
       </c>
+      <c r="Z5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1336,7 +1340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B530D-FF25-4FE0-A5D2-AE6DCBFCD3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438D5FB-3B07-8F49-85FC-0EE61ACCEE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="2340" windowWidth="22785" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,76 +50,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=007b0410-87dd-4f76-b9d7-4eb5432af367</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{07E346E8-92AB-42E8-A321-701882EBC58D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{095A4049-E2C6-44A2-97DC-12931064B1B8}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{A7BD9E8F-8A2C-43F5-9508-A1A057A45684}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{6CE240FC-267A-47A9-A352-FDCC0631240E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{BF649B5F-23A8-4E04-895D-2D0C1A14C527}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{192DBC6B-D4BC-45D1-A4C3-ED26EBF232AA}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{0DA95654-8E82-482D-A01D-7010DEE2B780}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{AD285427-ADB2-41DF-8A89-D23D7E4C15A1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -128,7 +208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>Source Name</t>
   </si>
@@ -199,9 +279,6 @@
     <t>Term Accession Number (NFDI4PSO:0000027)</t>
   </si>
   <si>
-    <t>Data File Name</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -314,148 +391,6 @@
   </si>
   <si>
     <t>Oliver</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TermSourceRef</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>Content type (validation)</t>
-  </si>
-  <si>
-    <t>Notes during templating</t>
-  </si>
-  <si>
-    <t>Target term</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Requirement (m/o/n)</t>
-  </si>
-  <si>
-    <t>Value (cv/s/d)</t>
-  </si>
-  <si>
-    <t>Additional information</t>
-  </si>
-  <si>
-    <t>Review comments</t>
-  </si>
-  <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000023</t>
-  </si>
-  <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000023</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000024</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000025</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000025</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000002</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000002</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000003</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000003</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000004</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000004</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000026</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000026</t>
-  </si>
-  <si>
-    <t>Parameter [Processed data file name]</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000028</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000028</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000027</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000027</t>
-  </si>
-  <si>
-    <t>DATA PROCESSING PIPELINE_data processing step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide details of how processed data were generated. Steps may include:
-Base-calling software, version, parameters;
-Data filtering steps;
-Read alignment software, version, parameters;
-Additional processing software (e.g., peak-calling, abundance measurement), version, parameters;
-etc...
-</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>at least some info is required, but not all terms</t>
-  </si>
-  <si>
-    <t>DATA PROCESSING PIPELINE_genome build</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSC or NCBI genome build number (e.g., hg18, mm9, human NCBI genome build 36, etc...), or reference sequence used for read alignment. 
-</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCSC or NCBI genome build number </t>
-  </si>
-  <si>
-    <t>PROCESSED DATA FILES_file name</t>
-  </si>
-  <si>
-    <t>PROCESSED DATA FILES_file type</t>
-  </si>
-  <si>
-    <t>The type of processed file. Examples include, peak, wig, bed, gff, bigWig, etc...</t>
   </si>
   <si>
     <t>Trimmomatic</t>
@@ -584,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -662,27 +597,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD2D2D2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2D2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2D2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -713,12 +633,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1112,41 +1026,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="P1" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -1223,110 +1137,110 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="13"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="X3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z4" s="13"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z5" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="Z5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1340,133 +1254,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1474,9 +1388,9 @@
       <c r="E13" s="6"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1484,129 +1398,129 @@
       <c r="E14" s="6"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1616,467 +1530,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0438D5FB-3B07-8F49-85FC-0EE61ACCEE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC467E6-EF7D-A445-95AA-0B52E8429ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13400" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -351,9 +349,6 @@
     <t>007b0410-87dd-4f76-b9d7-4eb5432af367</t>
   </si>
   <si>
-    <t>RNA-Seq Computational Analysis</t>
-  </si>
-  <si>
     <t>Template to describe the computational analysis of RNA-Seq data.</t>
   </si>
   <si>
@@ -457,6 +452,9 @@
   </si>
   <si>
     <t>Derived Data File</t>
+  </si>
+  <si>
+    <t>RNASeq Computational Analysis</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -1137,108 +1135,108 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>62</v>
-      </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
       <c r="X2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z5" s="11"/>
     </row>
@@ -1255,7 +1253,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1276,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1286,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1294,7 +1292,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1302,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1310,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1327,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1365,16 +1363,16 @@
         <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1412,13 +1410,13 @@
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1427,13 +1425,13 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1493,7 +1491,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1502,7 +1500,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1511,7 +1509,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1520,7 +1518,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC467E6-EF7D-A445-95AA-0B52E8429ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E29F1D-8F40-EF4B-98FD-57229EB4FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="4COM01_RNASeq" sheetId="1" r:id="rId1"/>
+    <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>Source Name</t>
   </si>
@@ -353,9 +353,6 @@
   </si>
   <si>
     <t>annotationTableOrdinaryCat87</t>
-  </si>
-  <si>
-    <t>GEO</t>
   </si>
   <si>
     <t>Transcriptomics</t>
@@ -1102,10 +1099,10 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
         <v>69</v>
-      </c>
-      <c r="P1" t="s">
-        <v>70</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
@@ -1135,108 +1132,108 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
         <v>60</v>
       </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>66</v>
-      </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
         <v>72</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z5" s="11"/>
     </row>
@@ -1250,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E27" sqref="A7:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1260,7 @@
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,23 +1268,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -1295,15 +1292,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1320,18 +1317,16 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1335,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1344,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -1358,25 +1353,24 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1384,9 +1378,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1394,9 +1387,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>37</v>
       </c>
@@ -1405,18 +1397,18 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1425,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1491,7 +1483,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1500,7 +1492,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1509,7 +1501,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1518,7 +1510,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E29F1D-8F40-EF4B-98FD-57229EB4FEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D81C3-1BA9-8041-8A03-98FE11D9041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,9 +430,6 @@
     <t>http://purl.obolibrary.org/obo/ENVO_01000801</t>
   </si>
   <si>
-    <t>1.1.7</t>
-  </si>
-  <si>
     <t>DataPLANT</t>
   </si>
   <si>
@@ -452,6 +449,9 @@
   </si>
   <si>
     <t>RNASeq Computational Analysis</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1249,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="A7:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195D81C3-1BA9-8041-8A03-98FE11D9041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12125A-0B44-464A-8C8E-7ECA89370084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
   <si>
     <t>Source Name</t>
   </si>
@@ -385,6 +385,9 @@
     <t>Oliver</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Trimmomatic</t>
   </si>
   <si>
@@ -452,6 +455,18 @@
   </si>
   <si>
     <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
   </si>
 </sst>
 </file>
@@ -635,7 +650,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{4500580F-8250-44DE-8BB2-4BA9BB0A7E04}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -656,10 +681,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat87" displayName="annotationTableOrdinaryCat87" ref="A1:Z5" totalsRowShown="0">
-  <autoFilter ref="A1:Z5" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}" name="annotationTableOrdinaryCat87" displayName="annotationTableOrdinaryCat87" ref="A1:AD5" totalsRowShown="0">
+  <autoFilter ref="A1:AD5" xr:uid="{3CA35855-14C3-457D-88F0-CFCCF85B5663}"/>
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{93380294-CB8D-42FC-AF8E-9805327345E7}" name="Source Name"/>
+    <tableColumn id="27" xr3:uid="{3F58EF55-E7DE-8648-B710-67F2B3EEB590}" name="Protocol Type"/>
+    <tableColumn id="28" xr3:uid="{A3853C19-E4D4-2444-909D-6ACC46BE862D}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{2D47A7A5-38D3-D147-A53D-71CA939BEED9}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{8EC82B81-366A-E94E-8876-A9C752E06330}" name="Protocol REF" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{80D6BC30-7F04-4051-BF2F-665DB88B06AE}" name="Parameter [Data filtering software]"/>
     <tableColumn id="4" xr3:uid="{D70950FE-1B6C-4B95-872D-2B43BEFF937B}" name="Term Source REF (NFDI4PSO:0000023)"/>
     <tableColumn id="5" xr3:uid="{B36D0CC1-213D-4915-92CE-07D32D120A1E}" name="Term Accession Number (NFDI4PSO:0000023)"/>
@@ -1019,223 +1048,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.1640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="43" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="43" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="11"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="11"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" t="s">
         <v>68</v>
       </c>
-      <c r="P1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="H2" t="s">
+      <c r="AB4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="11"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
         <v>63</v>
       </c>
-      <c r="O2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="11"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z5" s="11"/>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1249,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1358,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1281,7 +1366,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1483,7 +1568,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1492,7 +1577,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1501,7 +1586,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1510,7 +1595,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12125A-0B44-464A-8C8E-7ECA89370084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB0CE7-E238-384F-AC30-8981739F60C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>Source Name</t>
   </si>
@@ -361,9 +361,6 @@
     <t>mRNASeq</t>
   </si>
   <si>
-    <t>RNASeq</t>
-  </si>
-  <si>
     <t>Computational Analysis</t>
   </si>
   <si>
@@ -467,6 +464,21 @@
   </si>
   <si>
     <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>RNA-seq</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153189</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000003</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>DPBO</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1093,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1144,10 +1156,10 @@
         <v>13</v>
       </c>
       <c r="S1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T1" t="s">
         <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>70</v>
       </c>
       <c r="U1" t="s">
         <v>14</v>
@@ -1177,148 +1189,148 @@
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" t="s">
-        <v>61</v>
-      </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
         <v>64</v>
       </c>
-      <c r="S2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>66</v>
-      </c>
       <c r="AB2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
         <v>72</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
       <c r="AA4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD5" s="11"/>
     </row>
@@ -1334,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1358,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1366,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,7 +1394,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1449,28 +1461,36 @@
         <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1487,13 +1507,13 @@
         <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="E16" s="8"/>
     </row>
@@ -1502,13 +1522,13 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -1568,7 +1588,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1577,7 +1597,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1586,7 +1606,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1595,7 +1615,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB0CE7-E238-384F-AC30-8981739F60C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9393C74-0DD0-534E-AB58-14056D404545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25000" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
@@ -211,72 +211,6 @@
     <t>Source Name</t>
   </si>
   <si>
-    <t>Parameter [Data filtering software]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000023)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000023)</t>
-  </si>
-  <si>
-    <t>Parameter [Data filtering software version]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000024)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000024)</t>
-  </si>
-  <si>
-    <t>Parameter [Data filtering Software Parameters]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000025)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000025)</t>
-  </si>
-  <si>
-    <t>Parameter [Read Alignment Software]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000002)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000002)</t>
-  </si>
-  <si>
-    <t>Parameter [Read Alignment Software Version]</t>
-  </si>
-  <si>
-    <t>Parameter [Read Alignment Software Parameters]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000004)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000004)</t>
-  </si>
-  <si>
-    <t>Parameter [Genome reference sequence]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000026)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000026)</t>
-  </si>
-  <si>
-    <t>Parameter [Processed data file format]</t>
-  </si>
-  <si>
-    <t>Term Source REF (NFDI4PSO:0000027)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000027)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -412,12 +346,6 @@
     <t>.csv</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000003)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000003)</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
@@ -479,6 +407,78 @@
   </si>
   <si>
     <t>DPBO</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000023)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000023)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000024)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000024)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000025)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000025)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000002)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000002)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000003)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000003)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000004)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000004)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000026)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000027)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000027)</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software version]</t>
+  </si>
+  <si>
+    <t>Parameter [data filtering software parameters]</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software]</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software version]</t>
+  </si>
+  <si>
+    <t>Parameter [read alignment software parameters]</t>
+  </si>
+  <si>
+    <t>Parameter [genome reference sequence]</t>
+  </si>
+  <si>
+    <t>Parameter [processed data file format]</t>
   </si>
 </sst>
 </file>
@@ -701,30 +701,30 @@
     <tableColumn id="28" xr3:uid="{A3853C19-E4D4-2444-909D-6ACC46BE862D}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
     <tableColumn id="29" xr3:uid="{2D47A7A5-38D3-D147-A53D-71CA939BEED9}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
     <tableColumn id="30" xr3:uid="{8EC82B81-366A-E94E-8876-A9C752E06330}" name="Protocol REF" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{80D6BC30-7F04-4051-BF2F-665DB88B06AE}" name="Parameter [Data filtering software]"/>
-    <tableColumn id="4" xr3:uid="{D70950FE-1B6C-4B95-872D-2B43BEFF937B}" name="Term Source REF (NFDI4PSO:0000023)"/>
-    <tableColumn id="5" xr3:uid="{B36D0CC1-213D-4915-92CE-07D32D120A1E}" name="Term Accession Number (NFDI4PSO:0000023)"/>
-    <tableColumn id="6" xr3:uid="{B8535FD9-B990-417B-9BE4-863B8C1DD056}" name="Parameter [Data filtering software version]"/>
-    <tableColumn id="7" xr3:uid="{F3D9F84E-6988-4324-865B-B8B45498F88C}" name="Term Source REF (NFDI4PSO:0000024)"/>
-    <tableColumn id="8" xr3:uid="{F7BBF942-5618-4166-8C4B-7B4C3AED626C}" name="Term Accession Number (NFDI4PSO:0000024)"/>
-    <tableColumn id="9" xr3:uid="{0287F8CE-6AD4-4F24-B300-F7B3429D97C0}" name="Parameter [Data filtering Software Parameters]"/>
-    <tableColumn id="10" xr3:uid="{04B1E6E1-CABB-48B2-A81C-042E65BDE957}" name="Term Source REF (NFDI4PSO:0000025)"/>
-    <tableColumn id="11" xr3:uid="{B72149CB-1CDB-46BD-86A6-B82C86B36FD1}" name="Term Accession Number (NFDI4PSO:0000025)"/>
-    <tableColumn id="12" xr3:uid="{5C7BE764-57E0-4589-9182-D25EF6A1AB65}" name="Parameter [Read Alignment Software]"/>
-    <tableColumn id="13" xr3:uid="{C06CE5B8-351F-4CC2-AEDB-CAA06DAD68B6}" name="Term Source REF (NFDI4PSO:0000002)"/>
-    <tableColumn id="14" xr3:uid="{5B717FBF-AB22-4178-9622-551149AEDBA2}" name="Term Accession Number (NFDI4PSO:0000002)"/>
-    <tableColumn id="15" xr3:uid="{CC9E8F0E-F0C9-4C42-ABEE-8FABEE5CBCD5}" name="Parameter [Read Alignment Software Version]"/>
-    <tableColumn id="16" xr3:uid="{890B3357-096C-4D52-91F6-A6CDBEECF667}" name="Term Source REF (NFDI4PSO:0000003)"/>
-    <tableColumn id="17" xr3:uid="{95E4BB7E-6478-4A1E-A824-1B4419C317BC}" name="Term Accession Number (NFDI4PSO:0000003)"/>
-    <tableColumn id="18" xr3:uid="{B9705BE2-174E-4479-AB52-6D4198B45A1B}" name="Parameter [Read Alignment Software Parameters]"/>
-    <tableColumn id="19" xr3:uid="{9AB9BF6B-E892-417F-ADF0-011CB0B3775F}" name="Term Source REF (NFDI4PSO:0000004)"/>
-    <tableColumn id="20" xr3:uid="{52486034-F12F-4102-A0B2-90A45F35CBA8}" name="Term Accession Number (NFDI4PSO:0000004)"/>
-    <tableColumn id="21" xr3:uid="{169798B0-6306-4884-8DF7-5979162D94EB}" name="Parameter [Genome reference sequence]"/>
-    <tableColumn id="22" xr3:uid="{6F7E1CCD-1E73-4CA5-800D-2FBAFCC67E5F}" name="Term Source REF (NFDI4PSO:0000026)"/>
-    <tableColumn id="23" xr3:uid="{C0CE73B0-0152-4643-B3AC-962C15E1564E}" name="Term Accession Number (NFDI4PSO:0000026)"/>
-    <tableColumn id="24" xr3:uid="{D9EF39FD-6C34-45E7-BB66-0E47D62F2287}" name="Parameter [Processed data file format]"/>
-    <tableColumn id="25" xr3:uid="{4F08F69F-150F-4C24-8CF1-DB5CA334C705}" name="Term Source REF (NFDI4PSO:0000027)"/>
-    <tableColumn id="26" xr3:uid="{937F41BB-46A8-40D7-BA19-6EAA289C307B}" name="Term Accession Number (NFDI4PSO:0000027)"/>
+    <tableColumn id="3" xr3:uid="{80D6BC30-7F04-4051-BF2F-665DB88B06AE}" name="Parameter [data filtering software]"/>
+    <tableColumn id="4" xr3:uid="{D70950FE-1B6C-4B95-872D-2B43BEFF937B}" name="Term Source REF (DPBO:0000023)"/>
+    <tableColumn id="5" xr3:uid="{B36D0CC1-213D-4915-92CE-07D32D120A1E}" name="Term Accession Number (DPBO:0000023)"/>
+    <tableColumn id="6" xr3:uid="{B8535FD9-B990-417B-9BE4-863B8C1DD056}" name="Parameter [data filtering software version]"/>
+    <tableColumn id="7" xr3:uid="{F3D9F84E-6988-4324-865B-B8B45498F88C}" name="Term Source REF (DPBO:0000024)"/>
+    <tableColumn id="8" xr3:uid="{F7BBF942-5618-4166-8C4B-7B4C3AED626C}" name="Term Accession Number (DPBO:0000024)"/>
+    <tableColumn id="9" xr3:uid="{0287F8CE-6AD4-4F24-B300-F7B3429D97C0}" name="Parameter [data filtering software parameters]"/>
+    <tableColumn id="10" xr3:uid="{04B1E6E1-CABB-48B2-A81C-042E65BDE957}" name="Term Source REF (DPBO:0000025)"/>
+    <tableColumn id="11" xr3:uid="{B72149CB-1CDB-46BD-86A6-B82C86B36FD1}" name="Term Accession Number (DPBO:0000025)"/>
+    <tableColumn id="12" xr3:uid="{5C7BE764-57E0-4589-9182-D25EF6A1AB65}" name="Parameter [read alignment software]"/>
+    <tableColumn id="13" xr3:uid="{C06CE5B8-351F-4CC2-AEDB-CAA06DAD68B6}" name="Term Source REF (DPBO:0000002)"/>
+    <tableColumn id="14" xr3:uid="{5B717FBF-AB22-4178-9622-551149AEDBA2}" name="Term Accession Number (DPBO:0000002)"/>
+    <tableColumn id="15" xr3:uid="{CC9E8F0E-F0C9-4C42-ABEE-8FABEE5CBCD5}" name="Parameter [read alignment software version]"/>
+    <tableColumn id="16" xr3:uid="{890B3357-096C-4D52-91F6-A6CDBEECF667}" name="Term Source REF (DPBO:0000003)"/>
+    <tableColumn id="17" xr3:uid="{95E4BB7E-6478-4A1E-A824-1B4419C317BC}" name="Term Accession Number (DPBO:0000003)"/>
+    <tableColumn id="18" xr3:uid="{B9705BE2-174E-4479-AB52-6D4198B45A1B}" name="Parameter [read alignment software parameters]"/>
+    <tableColumn id="19" xr3:uid="{9AB9BF6B-E892-417F-ADF0-011CB0B3775F}" name="Term Source REF (DPBO:0000004)"/>
+    <tableColumn id="20" xr3:uid="{52486034-F12F-4102-A0B2-90A45F35CBA8}" name="Term Accession Number (DPBO:0000004)"/>
+    <tableColumn id="21" xr3:uid="{169798B0-6306-4884-8DF7-5979162D94EB}" name="Parameter [genome reference sequence]"/>
+    <tableColumn id="22" xr3:uid="{6F7E1CCD-1E73-4CA5-800D-2FBAFCC67E5F}" name="Term Source REF (DPBO:0000026)"/>
+    <tableColumn id="23" xr3:uid="{C0CE73B0-0152-4643-B3AC-962C15E1564E}" name="Term Accession Number (DPBO:0000026)"/>
+    <tableColumn id="24" xr3:uid="{D9EF39FD-6C34-45E7-BB66-0E47D62F2287}" name="Parameter [processed data file format]"/>
+    <tableColumn id="25" xr3:uid="{4F08F69F-150F-4C24-8CF1-DB5CA334C705}" name="Term Source REF (DPBO:0000027)"/>
+    <tableColumn id="26" xr3:uid="{937F41BB-46A8-40D7-BA19-6EAA289C307B}" name="Term Accession Number (DPBO:0000027)"/>
     <tableColumn id="2" xr3:uid="{010FC165-1DFE-496A-A994-5082DE452C3C}" name="Derived Data File"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1073,29 +1073,29 @@
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="40.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="33.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.83203125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="40.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="43" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="43" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="33.83203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="16.83203125" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1105,232 +1105,232 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AC1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>22</v>
-      </c>
       <c r="AD1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="P2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AD2" s="11"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Q3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="11"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AD4" s="11"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="11"/>
     </row>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
@@ -1359,55 +1359,55 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1452,50 +1452,50 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1504,37 +1504,37 @@
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9393C74-0DD0-534E-AB58-14056D404545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C5437-627D-454A-9C40-E9E707BC7402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
@@ -48,157 +48,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=007b0410-87dd-4f76-b9d7-4eb5432af367</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{07E346E8-92AB-42E8-A321-701882EBC58D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{095A4049-E2C6-44A2-97DC-12931064B1B8}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{A7BD9E8F-8A2C-43F5-9508-A1A057A45684}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{6CE240FC-267A-47A9-A352-FDCC0631240E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{BF649B5F-23A8-4E04-895D-2D0C1A14C527}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{192DBC6B-D4BC-45D1-A4C3-ED26EBF232AA}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{0DA95654-8E82-482D-A01D-7010DEE2B780}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{AD285427-ADB2-41DF-8A89-D23D7E4C15A1}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -206,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Source Name</t>
   </si>
@@ -479,6 +398,18 @@
   </si>
   <si>
     <t>Parameter [processed data file format]</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
+  </si>
+  <si>
+    <t>Kuhl</t>
+  </si>
+  <si>
+    <t>Martin</t>
   </si>
 </sst>
 </file>
@@ -1062,45 +993,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="33.5" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="40.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="43" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.83203125" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.85546875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
         <v>36</v>
@@ -1250,7 +1181,7 @@
       </c>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
         <v>36</v>
@@ -1281,7 +1212,7 @@
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>36</v>
@@ -1312,7 +1243,7 @@
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
         <v>36</v>
@@ -1346,18 +1277,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1373,7 +1302,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1381,7 +1310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1389,7 +1318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1326,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1414,34 +1343,40 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1450,7 +1385,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1480,7 +1415,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1493,7 +1428,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1437,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1515,9 +1450,11 @@
       <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1530,9 +1467,11 @@
       <c r="D17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1480,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1489,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1498,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1568,7 +1507,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1577,7 +1516,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1525,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1595,7 +1534,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1604,7 +1543,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1613,7 +1552,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>

--- a/templates/dataplant/4COM01_RNASeq.xlsx
+++ b/templates/dataplant/4COM01_RNASeq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9C5437-627D-454A-9C40-E9E707BC7402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD12484-48A2-4132-ACF1-53BA994E5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rnaseq_computational_analysis" sheetId="1" r:id="rId1"/>
@@ -48,75 +48,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2E0A847E-16F7-42B3-A6DC-C04983699CDE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=007b0410-87dd-4f76-b9d7-4eb5432af367</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{07E346E8-92AB-42E8-A321-701882EBC58D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{095A4049-E2C6-44A2-97DC-12931064B1B8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{A7BD9E8F-8A2C-43F5-9508-A1A057A45684}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{6CE240FC-267A-47A9-A352-FDCC0631240E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{BF649B5F-23A8-4E04-895D-2D0C1A14C527}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{192DBC6B-D4BC-45D1-A4C3-ED26EBF232AA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{0DA95654-8E82-482D-A01D-7010DEE2B780}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{AD285427-ADB2-41DF-8A89-D23D7E4C15A1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Source Name</t>
   </si>
@@ -398,12 +398,6 @@
   </si>
   <si>
     <t>Parameter [processed data file format]</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
   </si>
   <si>
     <t>Kuhl</t>
@@ -590,8 +584,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{4500580F-8250-44DE-8BB2-4BA9BB0A7E04}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -997,41 +991,41 @@
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="40.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="43" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="33.85546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="33.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
         <v>36</v>
@@ -1181,7 +1175,7 @@
       </c>
       <c r="AD2" s="11"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
         <v>36</v>
@@ -1212,7 +1206,7 @@
       </c>
       <c r="AD3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
         <v>36</v>
@@ -1243,7 +1237,7 @@
       </c>
       <c r="AD4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
         <v>36</v>
@@ -1277,16 +1271,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11AFC42-7216-4420-8824-56B92332BA6B}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1298,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1334,7 +1330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1343,40 +1339,34 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1385,7 +1375,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1402,7 +1392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1405,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1428,7 +1418,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1427,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1451,10 +1441,10 @@
         <v>32</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1468,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1470,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1479,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1498,7 +1488,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1497,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1516,7 +1506,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1525,7 +1515,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1534,7 +1524,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1543,7 +1533,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1552,7 +1542,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
